--- a/datas/UserCenter_test_datas.xlsx
+++ b/datas/UserCenter_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9255" activeTab="2"/>
+    <workbookView windowWidth="17565" windowHeight="9840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="创建充值金额接口" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="84">
   <si>
     <t>id</t>
   </si>
@@ -276,9 +276,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -305,54 +305,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -366,7 +320,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -380,16 +342,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -412,7 +366,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -420,7 +374,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -435,13 +435,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,19 +537,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,67 +585,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,19 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,49 +615,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,56 +629,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,22 +673,56 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,10 +734,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,13 +749,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,120 +767,117 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1234,7 +1231,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1281,10 +1278,10 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1306,14 +1303,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="50" customHeight="1" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="50" customHeight="1" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1335,14 +1332,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="50" customHeight="1" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="50" customHeight="1" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1364,14 +1361,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="50" customHeight="1" spans="1:9">
+    <row r="5" s="1" customFormat="1" ht="50" customHeight="1" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1393,14 +1390,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="50" customHeight="1" spans="1:9">
+    <row r="6" s="1" customFormat="1" ht="50" customHeight="1" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1422,14 +1419,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="50" customHeight="1" spans="1:9">
+    <row r="7" s="1" customFormat="1" ht="50" customHeight="1" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1452,52 +1449,52 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:7">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="E8" s="5"/>
-      <c r="G8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="4"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" customHeight="1" spans="2:7">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="E9" s="5"/>
-      <c r="G9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="4"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" customHeight="1" spans="2:7">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="E10" s="5"/>
-      <c r="G10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="4"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" customHeight="1" spans="3:7">
-      <c r="C11" s="9"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="E11" s="4"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" customHeight="1" spans="3:7">
-      <c r="C12" s="9"/>
-      <c r="E12" s="5"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" customHeight="1" spans="3:7">
-      <c r="C13" s="9"/>
-      <c r="E13" s="5"/>
-      <c r="G13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="E13" s="4"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" customHeight="1" spans="3:7">
-      <c r="C14" s="9"/>
-      <c r="E14" s="5"/>
-      <c r="G14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="4"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="17" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://admin.myfun7.com/adminWeb/payment/cashRecharge/createPaymentTask"/>
     <hyperlink ref="E4" r:id="rId1" display="http://admin.myfun7.com/adminWeb/payment/cashRecharge/createPaymentTask"/>
     <hyperlink ref="E5" r:id="rId1" display="http://admin.myfun7.com/adminWeb/payment/cashRecharge/createPaymentTask"/>
     <hyperlink ref="E6" r:id="rId1" display="http://admin.myfun7.com/adminWeb/payment/cashRecharge/createPaymentTask"/>
     <hyperlink ref="E3" r:id="rId1" display="http://admin.myfun7.com/adminWeb/payment/cashRecharge/createPaymentTask"/>
     <hyperlink ref="E7" r:id="rId1" display="http://admin.myfun7.com/adminWeb/payment/cashRecharge/createPaymentTask"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://admin.myfun7.com/adminWeb/payment/cashRecharge/createPaymentTask"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1509,8 +1506,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1575,7 +1572,7 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G2" t="s">
@@ -1604,7 +1601,7 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G3" t="s">
@@ -1633,7 +1630,7 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G4" t="s">
@@ -1662,7 +1659,7 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G5" t="s">
@@ -1691,7 +1688,7 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G6" t="s">
@@ -1720,7 +1717,7 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G7" t="s">
@@ -1749,7 +1746,7 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G8" t="s">
@@ -1778,7 +1775,7 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G9" t="s">
@@ -1815,8 +1812,8 @@
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1854,19 +1851,18 @@
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
         <v>78</v>
       </c>
@@ -1877,23 +1873,26 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="50" customHeight="1" spans="1:9">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="1" customFormat="1" ht="50" customHeight="1" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
